--- a/sheet_Std.xlsx
+++ b/sheet_Std.xlsx
@@ -485,7 +485,7 @@
         <v>log out of keka</v>
       </c>
       <c r="B10" s="1" t="str">
-        <v>Keka has been successfully clocked out. See you again soon!</v>
+        <v>We are unable to process your query due to invalid data. Please correct your input and try your query again.</v>
       </c>
     </row>
     <row r="11">
@@ -574,7 +574,7 @@
         <v>when is satyam next on leave</v>
       </c>
       <c r="B21" s="1" t="str">
-        <v>Casual Leave balance is 0.33 and Sick Leave balance is 1.33 and Paternity Leave balance is 3.00 and Total Leave balance is 5.66</v>
+        <v>I'm not designed to answer this question.</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
@@ -592,7 +592,7 @@
         <v>fetch my meetings for tomorrow</v>
       </c>
       <c r="B23" s="1" t="str">
-        <v>We apologize, but we couldn't find any events that match the given name.</v>
+        <v>We couldn't identify the app based on given action. Please try your request again.</v>
       </c>
     </row>
     <row r="24">
@@ -640,7 +640,7 @@
         <v>can you schedule a call with gupta.aman@tf.com and kumar.satyam@tft.com tomorow at 10:00? for testing</v>
       </c>
       <c r="B29" s="1" t="str">
-        <v>Attendees is missing, please enter value of Attendees in Email format or send "CANCEL" to start new conversation</v>
+        <v>Wonderful! Your calendar event has been successfully created. &lt;br&gt; https://www.google.com/calendar/event?eid=cWk4YXRvYWM3Z3R2b29tOG9uM2JrMHFjZ28gbG93Y29kZS51c2VyQHRmdHVzLmNvbQ</v>
       </c>
     </row>
     <row r="30">
@@ -648,7 +648,7 @@
         <v>can you schedule a call with gupta@tfs.com, adnan@tfus.com and kumar@tfts.com tomorow at 10:00? for testing</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>Something went wrong. Please try again Later.</v>
+        <v>Wonderful! Your calendar event has been successfully created. &lt;br&gt; https://www.google.com/calendar/event?eid=Zmk1Y2ZldnNxaGxta2lodDgzOHBoNzNmNG8gbG93Y29kZS51c2VyQHRmdHVzLmNvbQ</v>
       </c>
     </row>
     <row r="31">
@@ -672,7 +672,7 @@
         <v>fetch me a list of jira tickets</v>
       </c>
       <c r="B33" s="1" t="str">
-        <v>Oops! No jira ticket found. Please refine your search and try again!</v>
+        <v>We are unable to process your query due to invalid data. Please correct your input and try your query again.</v>
       </c>
     </row>
     <row r="34">
@@ -870,12 +870,15 @@
 3. Enter your username/email and password to establish the connection.</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" xml:space="preserve">
       <c r="A53" s="1" t="str">
         <v>connect DBF with SimplifyPath</v>
       </c>
-      <c r="B53" s="1" t="str">
-        <v>We couldn't identify the app based on given action. Please try your request again.</v>
+      <c r="B53" s="1" t="str" xml:space="preserve">
+        <v xml:space="preserve">To integrate DBF with SimplifyPath, please follow these steps: 
+1. Visit the integrations page in SimplifyPath. 
+2. Activate the DBF app. 
+3. Enter your username/email and password to establish the connection.</v>
       </c>
     </row>
     <row r="54">
@@ -1009,12 +1012,12 @@
         <v>Steps to connect Jira?</v>
       </c>
       <c r="B65" s="1" t="str" xml:space="preserve">
-        <v xml:space="preserve">To integrate Jira with SimplifyPath, follow these steps: 
-1. Head to the integrations page in SimplifyPath. 
-2. Activate the Jira app. 
-3. Initiate OAuth, allowing SimplifyPath the required permissions to access your Jira. 
-4. If you have multiple Jira projects, select the desired one from the "Authorize for site" dropdown. 
-5. Click "Accept" to finalize the integration. 
+        <v xml:space="preserve">To integrate Jira with SimplifyPath, follow these steps:
+1. Head to the integrations page in SimplifyPath.
+2. Activate the Jira app.
+3. Initiate OAuth, allowing SimplifyPath the required permissions to access your Jira.
+4. If you have multiple Jira projects, select the desired one from the "Authorize for site" dropdown.
+5. Click "Accept" to finalize the integration.
 6. Now, you can manage your Jira tickets seamlessly within SimplifyPath.</v>
       </c>
     </row>
@@ -1080,55 +1083,55 @@
    Website: null
    Id: 00QGB000024bAZm2AM
    Company: testc
-4. Name: MsPatricia Feager
+4. Name: firsttest lasttest
+   Phone: 09876543
+   Email: testemail@mail.com
+   Title: null
+   Website: null
+   Id: 00QGB000024bAcQ2AU
+   Company: testcompany
+5. Name: day bay
+   Phone: 123456789
+   Email: daybay@ttt.com
+   Title: null
+   Website: null
+   Id: 00QGB000024c6qS2AQ
+   Company: daybay
+6. Name: Ms.Bertha Boxer
+   Phone: (850) 644-4200
+   Email: bertha@fcof.net
+   Title: Director of Vendor Relations
+   Website: null
+   Id: 00QGB0000240A3Y2AU
+   Company: Farmers Coop. of Florida
+7. Name: MsPhyllis Cotton
+   Phone: (703) 757-1000
+   Email: pcotton@abbottins.net
+   Title: CFO
+   Website: null
+   Id: 00QGB0000240A3Z2AU
+   Company: Abbott Insurance
+8. Name: MrJeff Glimpse
+   Phone: 886-2-25474189
+   Email: jeffg@jackson.com
+   Title: SVP, Procurement
+   Website: null
+   Id: 00QGB0000240A3a2AE
+   Company: Jackson Controls
+9. Name: MrMike Braund
+   Phone: (410) 381-2334
+   Email: likeb@metro.com
+   Title: VP, Technology
+   Website: null
+   Id: 00QGB0000240A3b2AE
+   Company: Metropolitan Health Services
+10. Name: MsPatricia Feager
    Phone: (336) 777-1970
    Email: patricia_feager@is.com
    Title: CEO
    Website: null
    Id: 00QGB0000240A3c2AE
    Company: International Shipping Co.
-5. Name: firsttest lasttest
-   Phone: 09876543
-   Email: testemail@mail.com
-   Title: null
-   Website: null
-   Id: 00QGB000024bAcQ2AU
-   Company: testcompany
-6. Name: day bay
-   Phone: 123456789
-   Email: daybay@ttt.com
-   Title: null
-   Website: null
-   Id: 00QGB000024c6qS2AQ
-   Company: daybay
-7. Name: Ms.Bertha Boxer
-   Phone: (850) 644-4200
-   Email: bertha@fcof.net
-   Title: Director of Vendor Relations
-   Website: null
-   Id: 00QGB0000240A3Y2AU
-   Company: Farmers Coop. of Florida
-8. Name: MsPhyllis Cotton
-   Phone: (703) 757-1000
-   Email: pcotton@abbottins.net
-   Title: CFO
-   Website: null
-   Id: 00QGB0000240A3Z2AU
-   Company: Abbott Insurance
-9. Name: MrJeff Glimpse
-   Phone: 886-2-25474189
-   Email: jeffg@jackson.com
-   Title: SVP, Procurement
-   Website: null
-   Id: 00QGB0000240A3a2AE
-   Company: Jackson Controls
-10. Name: MrMike Braund
-   Phone: (410) 381-2334
-   Email: likeb@metro.com
-   Title: VP, Technology
-   Website: null
-   Id: 00QGB0000240A3b2AE
-   Company: Metropolitan Health Services
 </v>
       </c>
     </row>
@@ -1880,39 +1883,8 @@
         <v xml:space="preserve">retrieve the contact list with names, phone numbers, 
 and emails, sorted by date from salesforce</v>
       </c>
-      <c r="B90" s="1" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;b&gt;Here are your Contacts :&lt;/b&gt;
-1. Name: diy gosr
-   Phone: 12345678
-   Email: teat@mail.com
-2. Name: Ms.Rose Gonzalez
-   Phone: (512) 757-6000
-   Email: rose@edge.com
-3. Name: Mr.Sean Forbes
-   Phone: (512) 757-6000
-   Email: sean@edge.com
-4. Name: Mr.Jack Rogers
-   Phone: (336) 222-7000
-   Email: jrogers@burlington.com
-5. Name: Ms.Pat Stumuller
-   Phone: (014) 427-4427
-   Email: pat@pyramid.net
-6. Name: MrAndy Young
-   Phone: (785) 241-6200
-   Email: a_young@dickenson.com
-7. Name: Mr.Tim Barr
-   Phone: (312) 596-1000
-   Email: barr_tim@grandhotels.com
-8. Name: Mr.John Bond
-   Phone: (312) 596-1000
-   Email: bond_john@grandhotels.com
-9. Name: Ms.Stella Pavlova
-   Phone: (212) 842-5500
-   Email: spavlova@uog.com
-10. Name: Ms.Lauren Boyle
-   Phone: (212) 842-5500
-   Email: lboyle@uog.com
-</v>
+      <c r="B90" s="1" t="str">
+        <v>I'm not designed to answer this question.</v>
       </c>
     </row>
     <row r="91" xml:space="preserve">
